--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2741,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2776,28 +2788,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2834,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3405,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3440,28 +3452,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3498,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3624,10 +3636,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3671,28 +3683,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3717,28 +3729,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3826,10 +3838,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3873,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3919,28 +3931,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4028,10 +4040,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4075,28 +4087,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4121,28 +4133,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4230,10 +4242,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4277,28 +4289,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4323,28 +4335,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4490,10 +4502,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4537,28 +4549,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4583,28 +4595,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4733,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4768,28 +4780,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4826,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4952,10 +4964,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4999,28 +5011,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5045,28 +5057,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5183,10 +5195,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5230,28 +5242,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5276,28 +5288,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5356,10 +5368,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5403,28 +5415,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5449,28 +5461,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5616,10 +5628,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5663,28 +5675,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5709,28 +5721,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6713,10 +6725,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6760,28 +6772,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6806,28 +6818,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6915,10 +6927,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6962,28 +6974,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7008,28 +7020,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7117,10 +7129,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7164,28 +7176,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7210,28 +7222,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7550,10 +7562,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7597,28 +7609,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7643,28 +7655,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7752,10 +7764,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7799,28 +7811,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7845,28 +7857,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7937,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7972,28 +7984,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8030,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8156,10 +8168,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8203,28 +8215,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8249,28 +8261,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8531,10 +8543,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
